--- a/biology/Biochimie/Eugène_Aubel/Eugène_Aubel.xlsx
+++ b/biology/Biochimie/Eugène_Aubel/Eugène_Aubel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Aubel</t>
+          <t>Eugène_Aubel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Ferdinand Aubel, né le 12 juillet 1884 Paris et mort le 16 mars 1975 à Orléans, est un biochimiste, résistant et militant communiste français[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Ferdinand Aubel, né le 12 juillet 1884 Paris et mort le 16 mars 1975 à Orléans, est un biochimiste, résistant et militant communiste français,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Aubel</t>
+          <t>Eugène_Aubel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'un milieu populaire, et d'une famille engagée à gauche, il suit des études primaires brillantes qui lui permettent de réussir, en 1912, le concours de recrutement des ingénieurs chimistes de la ville de Paris.
 Réformé pour raisons de santé en 1914, il poursuit ses études après guerre, jusqu'au doctorat qu'il décroche en 1922.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Aubel</t>
+          <t>Eugène_Aubel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une thèse sur la nutrition du bacile pyocyanique, Aubel spécialise ses recherches sur la fermentation, publiant dès 1929 un état des recherches sur la question en collaboration avec Antoine Genevois. Son expertise dans le domaine fait qu'il est appelé à rédiger le volume correspondant de l'encyclopédie Que sais-je ?, qui paraît une première fois en 1952, et qu'il enrichira à plusieurs reprises ensuite.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Aubel</t>
+          <t>Eugène_Aubel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Recherches biochimiques sur la nutrition du bacille pyocyanique, thèse de doctorat, Caen, Lanier, 1921.
 Sur le métabolisme microbien de l'acide pyruvique, Paris, Masson, 1924.
